--- a/graphs/algorithm-results.xlsx
+++ b/graphs/algorithm-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/njblanch_uvm_edu/Documents/CS 124/Homework/Project4-njblanch/graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{947F8CEB-1509-A84B-A46F-C99B8AFD9F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0151F664-7407-104A-B60E-112C0BE39FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
@@ -643,6 +643,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Vector Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1302,6 +1362,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vector Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1367,6 +1482,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Reads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1410,6 +1585,2094 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Writes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Vector Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort Writes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'algorithm-results'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>766050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>635787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>509037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>378123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>281568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70086</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9A7-8E4A-9395-05116C058B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap Sort Writes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>339598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9A7-8E4A-9395-05116C058B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort Writes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>257348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65743</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9A7-8E4A-9395-05116C058B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort Writes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A9A7-8E4A-9395-05116C058B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort Writes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$O$2:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11066</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A9A7-8E4A-9395-05116C058B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort Writes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$R$2:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A9A7-8E4A-9395-05116C058B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Two-Sort Writes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$U$2:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>598550</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>478284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>377614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>289712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150322</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A9A7-8E4A-9395-05116C058B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="613635696"/>
+        <c:axId val="613637424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="613635696"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vector Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613637424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613637424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Writes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613635696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Vector Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'algorithm-results'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>26806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2812</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D96-5C46-B15C-045BD462100B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap Sort Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4864</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3387</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D96-5C46-B15C-045BD462100B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D96-5C46-B15C-045BD462100B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2D96-5C46-B15C-045BD462100B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2D96-5C46-B15C-045BD462100B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$S$2:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2D96-5C46-B15C-045BD462100B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'algorithm-results'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Two-Sort Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'algorithm-results'!$V$2:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5678</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2D96-5C46-B15C-045BD462100B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="613635696"/>
+        <c:axId val="613637424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="613635696"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vector Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613637424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613637424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613635696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1494,6 +3757,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1997,20 +4340,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>673099</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>746</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>686685</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95988</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14331</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>155752</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2030,6 +5379,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14942</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28528</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF51468-533E-6D42-B172-401CC5935105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>819959</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11779</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145137</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2063D9C-BF1B-3B45-9A31-3AAA120BDE4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2337,8 +5762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/graphs/algorithm-results.xlsx
+++ b/graphs/algorithm-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/njblanch_uvm_edu/Documents/CS 124/Homework/Project4-njblanch/graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0151F664-7407-104A-B60E-112C0BE39FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{293E2D2F-DFDD-7E42-ABC0-B3696252AF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
@@ -5762,8 +5762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="262" zoomScaleNormal="262" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
